--- a/biology/Histoire de la zoologie et de la botanique/Boston_Journal_of_Natural_History/Boston_Journal_of_Natural_History.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Boston_Journal_of_Natural_History/Boston_Journal_of_Natural_History.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Boston Journal of Natural History (1834-1863) est une revue savante publiée par la Boston Society of Natural History au milieu du XIXe siècle au Massachusetts. Les contributeurs comprenaient Charles T. Jackson, Augustus A. Gould et d'autres. Chaque volume contenait des illustrations lithographiques, certaines en couleur, dessinées ou gravées par EW Bouvé, BF Nutting, A. Sonrel, et al. et imprimées par Pendleton's Lithography et d'autres sociétés[1].
+Le Boston Journal of Natural History (1834-1863) est une revue savante publiée par la Boston Society of Natural History au milieu du XIXe siècle au Massachusetts. Les contributeurs comprenaient Charles T. Jackson, Augustus A. Gould et d'autres. Chaque volume contenait des illustrations lithographiques, certaines en couleur, dessinées ou gravées par EW Bouvé, BF Nutting, A. Sonrel, et al. et imprimées par Pendleton's Lithography et d'autres sociétés.
 </t>
         </is>
       </c>
